--- a/dal, subji, kadhi/Dal/Sabut moong dal from Rajbhoga recipies.xlsx
+++ b/dal, subji, kadhi/Dal/Sabut moong dal from Rajbhoga recipies.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nandi\Google Drive\recipies\dal, subji, kadhi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nandi\Google Drive\recipies\dal, subji, kadhi\Dal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB39A26C-06F0-4680-9236-98AD8026F3A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40BEF39-4534-43FA-9807-331D331A1292}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{134C7825-DF8B-42D3-A51C-71C91B0E6488}"/>
   </bookViews>
@@ -544,7 +544,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="D3" sqref="D3:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,13 +603,13 @@
       </c>
       <c r="B3" s="8">
         <f>(E3/F3)*D3</f>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -627,13 +627,13 @@
       </c>
       <c r="B4" s="5">
         <f t="shared" ref="B4:B17" si="0">(E4/F4)*D4</f>
-        <v>5.333333333333333</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E4" s="1">
         <v>8</v>
@@ -652,7 +652,7 @@
       <c r="B5" s="5"/>
       <c r="C5" s="4"/>
       <c r="D5" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1">
@@ -665,13 +665,13 @@
       </c>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E6" s="1">
         <v>9</v>
@@ -692,13 +692,13 @@
       </c>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -719,13 +719,13 @@
       </c>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
-        <v>1.3333333333333333</v>
+        <v>2</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
@@ -740,13 +740,13 @@
       </c>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
-        <v>5.333333333333333</v>
+        <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E9" s="1">
         <v>8</v>
@@ -764,13 +764,13 @@
       </c>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -785,13 +785,13 @@
       </c>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -806,13 +806,13 @@
       </c>
       <c r="B12" s="8">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E12" s="1">
         <v>0.25</v>
@@ -827,13 +827,13 @@
       </c>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -848,13 +848,13 @@
       </c>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
-        <v>1.3333333333333333</v>
+        <v>2</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D14" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E14" s="1">
         <v>2</v>
@@ -869,13 +869,13 @@
       </c>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -890,13 +890,13 @@
       </c>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
-        <v>1.3333333333333333</v>
+        <v>2</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E16" s="1">
         <v>2</v>
@@ -911,13 +911,13 @@
       </c>
       <c r="B17" s="5">
         <f t="shared" si="0"/>
-        <v>1.3333333333333333</v>
+        <v>2</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E17" s="1">
         <v>2</v>
